--- a/src/assets/formats/update-employee.xlsx
+++ b/src/assets/formats/update-employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-29475" yWindow="-8700" windowWidth="25605" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-29475" yWindow="-8700" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Biometric Id</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -72,15 +69,9 @@
     <t>Aadhaar</t>
   </si>
   <si>
-    <t>Your Organization Name</t>
-  </si>
-  <si>
     <t>Supervisor Code</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Designation Code</t>
   </si>
   <si>
@@ -109,6 +100,12 @@
   </si>
   <si>
     <t>Account Holder Name</t>
+  </si>
+  <si>
+    <t>Membership Date</t>
+  </si>
+  <si>
+    <t>Contractor</t>
   </si>
 </sst>
 </file>
@@ -118,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,14 +124,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -178,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -193,12 +182,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -470,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,180 +461,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="9" width="19.125" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="3"/>
-    <col min="23" max="24" width="14.625" customWidth="1"/>
-    <col min="25" max="25" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="10" width="19.125" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3"/>
+    <col min="24" max="25" width="14.625" customWidth="1"/>
+    <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="31.5">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+    <row r="2" spans="1:28">
+      <c r="N2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" ht="31.5">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="M4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="M5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+    <row r="3" spans="1:28">
+      <c r="N3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/formats/update-employee.xlsx
+++ b/src/assets/formats/update-employee.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Supervisor Code</t>
   </si>
   <si>
-    <t>Designation Code</t>
-  </si>
-  <si>
-    <t>Department Code</t>
-  </si>
-  <si>
     <t>Address Line 1</t>
   </si>
   <si>
@@ -106,6 +100,15 @@
   </si>
   <si>
     <t>Contractor</t>
+  </si>
+  <si>
+    <t>Designation Name</t>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>Branch</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -476,10 +479,11 @@
     <col min="24" max="25" width="14.625" customWidth="1"/>
     <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="21.625" customWidth="1"/>
+    <col min="29" max="29" width="18.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="31.5">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="31.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -487,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -499,25 +503,25 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>4</v>
@@ -529,10 +533,10 @@
         <v>6</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>7</v>
@@ -547,13 +551,13 @@
         <v>10</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="4" t="s">
         <v>12</v>
@@ -561,17 +565,20 @@
       <c r="AA1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>

--- a/src/assets/formats/update-employee.xlsx
+++ b/src/assets/formats/update-employee.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -99,9 +99,6 @@
     <t>Membership Date</t>
   </si>
   <si>
-    <t>Contractor</t>
-  </si>
-  <si>
     <t>Designation Name</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Branch</t>
+  </si>
+  <si>
+    <t>Contractor Code</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -509,7 +509,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>24</v>
@@ -518,10 +518,10 @@
         <v>15</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>4</v>
@@ -566,7 +566,7 @@
         <v>13</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>14</v>
@@ -578,12 +578,6 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:29">
-      <c r="N3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/assets/formats/update-employee.xlsx
+++ b/src/assets/formats/update-employee.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Code</t>
   </si>
@@ -109,6 +106,36 @@
   </si>
   <si>
     <t>Contractor Code</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Contractor Name</t>
+  </si>
+  <si>
+    <t>Designation Code</t>
+  </si>
+  <si>
+    <t>Department Code</t>
+  </si>
+  <si>
+    <t>PF NO</t>
+  </si>
+  <si>
+    <t>ESI NO</t>
+  </si>
+  <si>
+    <t>UAN NO</t>
+  </si>
+  <si>
+    <t>Nominee Name</t>
+  </si>
+  <si>
+    <t>Nominee Relation</t>
   </si>
 </sst>
 </file>
@@ -170,9 +197,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,10 +206,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,119 +505,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="10" width="19.125" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3"/>
-    <col min="24" max="25" width="14.625" customWidth="1"/>
-    <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.625" customWidth="1"/>
-    <col min="29" max="29" width="18.625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="2"/>
+    <col min="23" max="24" width="14.625" customWidth="1"/>
+    <col min="25" max="25" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.625" customWidth="1"/>
+    <col min="28" max="28" width="18.625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="31.5">
+    <row r="1" spans="1:39" s="10" customFormat="1" ht="31.5">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="AE1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="AG1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="N2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="AK1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/formats/update-employee.xlsx
+++ b/src/assets/formats/update-employee.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Code</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>Joining Date</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>Nominee Relation</t>
+  </si>
+  <si>
+    <t>Division Name</t>
+  </si>
+  <si>
+    <t>Division Date</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -517,29 +520,29 @@
     <col min="2" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="9" width="19.125" customWidth="1"/>
     <col min="10" max="10" width="10.875" style="2"/>
-    <col min="23" max="24" width="14.625" customWidth="1"/>
-    <col min="25" max="25" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.625" customWidth="1"/>
-    <col min="28" max="28" width="18.625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="15.75" customWidth="1"/>
+    <col min="25" max="26" width="14.625" customWidth="1"/>
+    <col min="27" max="27" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.625" customWidth="1"/>
+    <col min="30" max="30" width="18.625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="10" customFormat="1" ht="31.5">
+    <row r="1" spans="1:41" s="10" customFormat="1" ht="31.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -548,99 +551,105 @@
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AI1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AL1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="9"/>
+      <c r="AO1" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
